--- a/04_Modelling/02_pelagic/02_eDNA/BRT_Output_edna/contrib_mod_best_fixed_richness_gaussian.xlsx
+++ b/04_Modelling/02_pelagic/02_eDNA/BRT_Output_edna/contrib_mod_best_fixed_richness_gaussian.xlsx
@@ -376,7 +376,7 @@
         </is>
       </c>
       <c r="B2">
-        <v>52.12840753742408</v>
+        <v>28.88078293356574</v>
       </c>
     </row>
     <row r="3">
@@ -386,17 +386,17 @@
         </is>
       </c>
       <c r="B3">
-        <v>12.76140807253144</v>
+        <v>14.51249740041947</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>seafloorTemp</t>
+          <t>Sampling_Depth</t>
         </is>
       </c>
       <c r="B4">
-        <v>11.67875771508522</v>
+        <v>13.81429505417648</v>
       </c>
     </row>
     <row r="5">
@@ -406,37 +406,37 @@
         </is>
       </c>
       <c r="B5">
-        <v>11.09763348007053</v>
+        <v>13.0889692213679</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>NorthwardVelocity</t>
+          <t>seafloorTemp</t>
         </is>
       </c>
       <c r="B6">
-        <v>8.391405888090736</v>
+        <v>13.03651989617868</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>SummitRugosity</t>
+          <t>NorthwardVelocity</t>
         </is>
       </c>
       <c r="B7">
-        <v>2.744386924057568</v>
+        <v>8.135667009336945</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>SummitAreaKm2</t>
+          <t>SummitRugosity</t>
         </is>
       </c>
       <c r="B8">
-        <v>1.029085258094743</v>
+        <v>5.753162320763535</v>
       </c>
     </row>
     <row r="9">
@@ -446,7 +446,7 @@
         </is>
       </c>
       <c r="B9">
-        <v>0.1689151246456926</v>
+        <v>2.778106164191253</v>
       </c>
     </row>
   </sheetData>
